--- a/biology/Zoologie/Acratosaura_mentalis/Acratosaura_mentalis.xlsx
+++ b/biology/Zoologie/Acratosaura_mentalis/Acratosaura_mentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acratosaura mentalis est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acratosaura mentalis est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre endémique du Brésil[1]. Elle se rencontre au Ceará, au Rio Grande do Norte, au Paraíba, au Pernambouc, en Alagoas, au Sergipe, au Bahia et dans le Nord du Minas Gerais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre endémique du Brésil. Elle se rencontre au Ceará, au Rio Grande do Norte, au Paraíba, au Pernambouc, en Alagoas, au Sergipe, au Bahia et dans le Nord du Minas Gerais.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amaral, 1933 "1932" : Estudos sobre Lacertilios neotropicos. I. novos generos e especies de largartos do Brasil. Memorias do Instituto Butantan, vol. 7, p. 51-75.</t>
         </is>
